--- a/inputs/src/main/java/com/brixton/input/service/demo.xlsx
+++ b/inputs/src/main/java/com/brixton/input/service/demo.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZolyDev\BrixtonGroup\Teaching\Java_Backend_Mid_Senior\repo\java_mid\inputs\src\main\java\com\brixton\input\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A42F9E-2E26-4142-8960-1DA92AA5C1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F0DF56-B381-4CAA-BB95-2E3D03DD9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25710" yWindow="3255" windowWidth="22020" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="SheetX" sheetId="4" r:id="rId3"/>
+    <sheet name="Hojita" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,12 +52,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,8 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,22 +376,62 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F791BB-8F7C-47D7-9AB2-AC3DAD816E71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E502C1BF-B67A-41E1-BC0C-55329BCE2ED9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FC68AE-23A7-44E8-A726-BF436F12018B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>